--- a/training_dataset.xlsx
+++ b/training_dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I010994\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I010994\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEFE429-8692-490C-9D48-D7C97B3E950F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53F5A88-2999-4F6A-B161-F93906F61635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>image</t>
   </si>
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>356.jpg</t>
+  </si>
+  <si>
+    <t>279.jpg</t>
+  </si>
+  <si>
+    <t>123.jpg</t>
+  </si>
+  <si>
+    <t>319.jpg</t>
   </si>
 </sst>
 </file>
@@ -566,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G400"/>
+  <dimension ref="A1:G395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="G396" sqref="G396"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="A316" sqref="A316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3286,7 +3295,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
-        <f t="shared" ref="A116:A179" si="1">TEXT(VALUE(MID(A115, 1, LEN(A115)-4)) + 1, "0") &amp; ".jpg"</f>
+        <f t="shared" ref="A116:A178" si="1">TEXT(VALUE(MID(A115, 1, LEN(A115)-4)) + 1, "0") &amp; ".jpg"</f>
         <v>115.jpg</v>
       </c>
       <c r="B116">
@@ -3453,9 +3462,8 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" t="str">
-        <f t="shared" si="1"/>
-        <v>122.jpg</v>
+      <c r="A123" t="s">
+        <v>58</v>
       </c>
       <c r="B123">
         <v>236</v>
@@ -3479,7 +3487,7 @@
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
-        <v>123.jpg</v>
+        <v>124.jpg</v>
       </c>
       <c r="B124">
         <v>236</v>
@@ -3503,7 +3511,7 @@
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
-        <v>124.jpg</v>
+        <v>125.jpg</v>
       </c>
       <c r="B125">
         <v>236</v>
@@ -3527,7 +3535,7 @@
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
-        <v>125.jpg</v>
+        <v>126.jpg</v>
       </c>
       <c r="B126">
         <v>236</v>
@@ -3551,7 +3559,7 @@
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
-        <v>126.jpg</v>
+        <v>127.jpg</v>
       </c>
       <c r="B127">
         <v>236</v>
@@ -3575,7 +3583,7 @@
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
-        <v>127.jpg</v>
+        <v>128.jpg</v>
       </c>
       <c r="B128">
         <v>236</v>
@@ -3599,7 +3607,7 @@
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
-        <v>128.jpg</v>
+        <v>129.jpg</v>
       </c>
       <c r="B129">
         <v>236</v>
@@ -3623,7 +3631,7 @@
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
         <f t="shared" si="1"/>
-        <v>129.jpg</v>
+        <v>130.jpg</v>
       </c>
       <c r="B130">
         <v>236</v>
@@ -3647,7 +3655,7 @@
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
         <f t="shared" si="1"/>
-        <v>130.jpg</v>
+        <v>131.jpg</v>
       </c>
       <c r="B131">
         <v>236</v>
@@ -3671,7 +3679,7 @@
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="str">
         <f t="shared" si="1"/>
-        <v>131.jpg</v>
+        <v>132.jpg</v>
       </c>
       <c r="B132">
         <v>236</v>
@@ -3695,7 +3703,7 @@
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="str">
         <f t="shared" si="1"/>
-        <v>132.jpg</v>
+        <v>133.jpg</v>
       </c>
       <c r="B133">
         <v>236</v>
@@ -3719,7 +3727,7 @@
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
         <f t="shared" si="1"/>
-        <v>133.jpg</v>
+        <v>134.jpg</v>
       </c>
       <c r="B134">
         <v>236</v>
@@ -3743,7 +3751,7 @@
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
         <f t="shared" si="1"/>
-        <v>134.jpg</v>
+        <v>135.jpg</v>
       </c>
       <c r="B135">
         <v>236</v>
@@ -3767,7 +3775,7 @@
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="str">
         <f t="shared" si="1"/>
-        <v>135.jpg</v>
+        <v>136.jpg</v>
       </c>
       <c r="B136">
         <v>236</v>
@@ -3791,7 +3799,7 @@
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="str">
         <f t="shared" si="1"/>
-        <v>136.jpg</v>
+        <v>137.jpg</v>
       </c>
       <c r="B137">
         <v>236</v>
@@ -3815,13 +3823,13 @@
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="str">
         <f t="shared" si="1"/>
-        <v>137.jpg</v>
+        <v>138.jpg</v>
       </c>
       <c r="B138">
         <v>236</v>
       </c>
       <c r="C138">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -3839,7 +3847,7 @@
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
         <f t="shared" si="1"/>
-        <v>138.jpg</v>
+        <v>139.jpg</v>
       </c>
       <c r="B139">
         <v>236</v>
@@ -3848,22 +3856,22 @@
         <v>419</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="str">
         <f t="shared" si="1"/>
-        <v>139.jpg</v>
+        <v>140.jpg</v>
       </c>
       <c r="B140">
         <v>236</v>
@@ -3872,46 +3880,46 @@
         <v>419</v>
       </c>
       <c r="D140">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E140">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F140">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="G140">
-        <v>39</v>
+        <v>207</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
         <f t="shared" si="1"/>
-        <v>140.jpg</v>
+        <v>141.jpg</v>
       </c>
       <c r="B141">
         <v>236</v>
       </c>
       <c r="C141">
-        <v>419</v>
+        <v>510</v>
       </c>
       <c r="D141">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G141">
-        <v>207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
         <f t="shared" si="1"/>
-        <v>141.jpg</v>
+        <v>142.jpg</v>
       </c>
       <c r="B142">
         <v>236</v>
@@ -3920,10 +3928,10 @@
         <v>510</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -3935,7 +3943,7 @@
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
         <f t="shared" si="1"/>
-        <v>142.jpg</v>
+        <v>143.jpg</v>
       </c>
       <c r="B143">
         <v>236</v>
@@ -3944,22 +3952,22 @@
         <v>510</v>
       </c>
       <c r="D143">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="E143">
-        <v>475</v>
+        <v>300</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>473</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="str">
         <f t="shared" si="1"/>
-        <v>143.jpg</v>
+        <v>144.jpg</v>
       </c>
       <c r="B144">
         <v>236</v>
@@ -3968,46 +3976,46 @@
         <v>510</v>
       </c>
       <c r="D144">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="str">
         <f t="shared" si="1"/>
-        <v>144.jpg</v>
+        <v>145.jpg</v>
       </c>
       <c r="B145">
         <v>236</v>
       </c>
       <c r="C145">
-        <v>510</v>
+        <v>419</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="str">
         <f t="shared" si="1"/>
-        <v>145.jpg</v>
+        <v>146.jpg</v>
       </c>
       <c r="B146">
         <v>236</v>
@@ -4016,22 +4024,22 @@
         <v>419</v>
       </c>
       <c r="D146">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="E146">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F146">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
         <f t="shared" si="1"/>
-        <v>146.jpg</v>
+        <v>147.jpg</v>
       </c>
       <c r="B147">
         <v>236</v>
@@ -4040,22 +4048,22 @@
         <v>419</v>
       </c>
       <c r="D147">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E147">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="str">
         <f t="shared" si="1"/>
-        <v>147.jpg</v>
+        <v>148.jpg</v>
       </c>
       <c r="B148">
         <v>236</v>
@@ -4064,82 +4072,82 @@
         <v>419</v>
       </c>
       <c r="D148">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="E148">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="F148">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="G148">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="str">
         <f t="shared" si="1"/>
-        <v>148.jpg</v>
+        <v>149.jpg</v>
       </c>
       <c r="B149">
         <v>236</v>
       </c>
       <c r="C149">
-        <v>419</v>
+        <v>510</v>
       </c>
       <c r="D149">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="E149">
-        <v>260</v>
+        <v>474</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
         <f t="shared" si="1"/>
-        <v>149.jpg</v>
+        <v>150.jpg</v>
       </c>
       <c r="B150">
         <v>236</v>
       </c>
       <c r="C150">
-        <v>510</v>
+        <v>419</v>
       </c>
       <c r="D150">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E150">
-        <v>474</v>
+        <v>391</v>
       </c>
       <c r="F150">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
         <f t="shared" si="1"/>
-        <v>150.jpg</v>
+        <v>151.jpg</v>
       </c>
       <c r="B151">
         <v>236</v>
       </c>
       <c r="C151">
-        <v>419</v>
+        <v>510</v>
       </c>
       <c r="D151">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E151">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -4151,19 +4159,19 @@
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="str">
         <f t="shared" si="1"/>
-        <v>151.jpg</v>
+        <v>152.jpg</v>
       </c>
       <c r="B152">
         <v>236</v>
       </c>
       <c r="C152">
-        <v>510</v>
+        <v>419</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -4175,7 +4183,7 @@
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="str">
         <f t="shared" si="1"/>
-        <v>152.jpg</v>
+        <v>153.jpg</v>
       </c>
       <c r="B153">
         <v>236</v>
@@ -4184,10 +4192,10 @@
         <v>419</v>
       </c>
       <c r="D153">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E153">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -4199,79 +4207,79 @@
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="str">
         <f t="shared" si="1"/>
-        <v>153.jpg</v>
+        <v>154.jpg</v>
       </c>
       <c r="B154">
         <v>236</v>
       </c>
       <c r="C154">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>473</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="str">
         <f t="shared" si="1"/>
-        <v>154.jpg</v>
+        <v>155.jpg</v>
       </c>
       <c r="B155">
         <v>236</v>
       </c>
       <c r="C155">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D155">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="E155">
-        <v>474</v>
+        <v>394</v>
       </c>
       <c r="F155">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="str">
         <f t="shared" si="1"/>
-        <v>155.jpg</v>
+        <v>156.jpg</v>
       </c>
       <c r="B156">
         <v>236</v>
       </c>
       <c r="C156">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D156">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="E156">
-        <v>394</v>
+        <v>474</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>179</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="str">
         <f t="shared" si="1"/>
-        <v>156.jpg</v>
+        <v>157.jpg</v>
       </c>
       <c r="B157">
         <v>236</v>
@@ -4280,22 +4288,22 @@
         <v>511</v>
       </c>
       <c r="D157">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E157">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G157">
-        <v>179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="str">
         <f t="shared" si="1"/>
-        <v>157.jpg</v>
+        <v>158.jpg</v>
       </c>
       <c r="B158">
         <v>236</v>
@@ -4304,94 +4312,94 @@
         <v>511</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>187</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="str">
         <f t="shared" si="1"/>
-        <v>158.jpg</v>
+        <v>159.jpg</v>
       </c>
       <c r="B159">
         <v>236</v>
       </c>
       <c r="C159">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D159">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="E159">
-        <v>475</v>
+        <v>392</v>
       </c>
       <c r="F159">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="G159">
-        <v>187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="str">
         <f t="shared" si="1"/>
-        <v>159.jpg</v>
+        <v>160.jpg</v>
       </c>
       <c r="B160">
         <v>236</v>
       </c>
       <c r="C160">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D160">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E160">
-        <v>392</v>
+        <v>477</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>477</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="str">
         <f t="shared" si="1"/>
-        <v>160.jpg</v>
+        <v>161.jpg</v>
       </c>
       <c r="B161">
         <v>236</v>
       </c>
       <c r="C161">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D161">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E161">
-        <v>477</v>
+        <v>391</v>
       </c>
       <c r="F161">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="G161">
-        <v>477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
         <f t="shared" si="1"/>
-        <v>161.jpg</v>
+        <v>162.jpg</v>
       </c>
       <c r="B162">
         <v>236</v>
@@ -4400,22 +4408,22 @@
         <v>419</v>
       </c>
       <c r="D162">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="E162">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>204</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="str">
         <f t="shared" si="1"/>
-        <v>162.jpg</v>
+        <v>163.jpg</v>
       </c>
       <c r="B163">
         <v>236</v>
@@ -4424,22 +4432,22 @@
         <v>419</v>
       </c>
       <c r="D163">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="E163">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="F163">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="G163">
-        <v>204</v>
+        <v>103</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="str">
         <f t="shared" si="1"/>
-        <v>163.jpg</v>
+        <v>164.jpg</v>
       </c>
       <c r="B164">
         <v>236</v>
@@ -4448,22 +4456,22 @@
         <v>419</v>
       </c>
       <c r="D164">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E164">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
         <f t="shared" si="1"/>
-        <v>164.jpg</v>
+        <v>165.jpg</v>
       </c>
       <c r="B165">
         <v>236</v>
@@ -4472,22 +4480,22 @@
         <v>419</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G165">
-        <v>0</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="str">
         <f t="shared" si="1"/>
-        <v>165.jpg</v>
+        <v>166.jpg</v>
       </c>
       <c r="B166">
         <v>236</v>
@@ -4496,22 +4504,22 @@
         <v>419</v>
       </c>
       <c r="D166">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="E166">
-        <v>391</v>
+        <v>313</v>
       </c>
       <c r="F166">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="G166">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="str">
         <f t="shared" si="1"/>
-        <v>166.jpg</v>
+        <v>167.jpg</v>
       </c>
       <c r="B167">
         <v>236</v>
@@ -4520,22 +4528,22 @@
         <v>419</v>
       </c>
       <c r="D167">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E167">
-        <v>313</v>
+        <v>391</v>
       </c>
       <c r="F167">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="str">
         <f t="shared" si="1"/>
-        <v>167.jpg</v>
+        <v>168.jpg</v>
       </c>
       <c r="B168">
         <v>236</v>
@@ -4544,10 +4552,10 @@
         <v>419</v>
       </c>
       <c r="D168">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="E168">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -4559,7 +4567,7 @@
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="str">
         <f t="shared" si="1"/>
-        <v>168.jpg</v>
+        <v>169.jpg</v>
       </c>
       <c r="B169">
         <v>236</v>
@@ -4568,22 +4576,22 @@
         <v>419</v>
       </c>
       <c r="D169">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E169">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>206</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="str">
         <f t="shared" si="1"/>
-        <v>169.jpg</v>
+        <v>170.jpg</v>
       </c>
       <c r="B170">
         <v>236</v>
@@ -4592,34 +4600,34 @@
         <v>419</v>
       </c>
       <c r="D170">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E170">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F170">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="str">
         <f t="shared" si="1"/>
-        <v>170.jpg</v>
+        <v>171.jpg</v>
       </c>
       <c r="B171">
         <v>236</v>
       </c>
       <c r="C171">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D171">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E171">
-        <v>384</v>
+        <v>474</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -4631,31 +4639,31 @@
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="str">
         <f t="shared" si="1"/>
-        <v>171.jpg</v>
+        <v>172.jpg</v>
       </c>
       <c r="B172">
         <v>236</v>
       </c>
       <c r="C172">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D172">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E172">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>392</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="str">
         <f t="shared" si="1"/>
-        <v>172.jpg</v>
+        <v>173.jpg</v>
       </c>
       <c r="B173">
         <v>236</v>
@@ -4664,22 +4672,22 @@
         <v>419</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F173">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="str">
         <f t="shared" si="1"/>
-        <v>173.jpg</v>
+        <v>174.jpg</v>
       </c>
       <c r="B174">
         <v>236</v>
@@ -4688,70 +4696,70 @@
         <v>419</v>
       </c>
       <c r="D174">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="E174">
-        <v>37</v>
+        <v>395</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G174">
-        <v>0</v>
+        <v>314</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="str">
         <f t="shared" si="1"/>
-        <v>174.jpg</v>
+        <v>175.jpg</v>
       </c>
       <c r="B175">
         <v>236</v>
       </c>
       <c r="C175">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D175">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E175">
-        <v>395</v>
+        <v>476</v>
       </c>
       <c r="F175">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="G175">
-        <v>314</v>
+        <v>243</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="str">
         <f t="shared" si="1"/>
-        <v>175.jpg</v>
+        <v>176.jpg</v>
       </c>
       <c r="B176">
         <v>236</v>
       </c>
       <c r="C176">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D176">
         <v>37</v>
       </c>
       <c r="E176">
-        <v>476</v>
+        <v>386</v>
       </c>
       <c r="F176">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="str">
         <f t="shared" si="1"/>
-        <v>176.jpg</v>
+        <v>177.jpg</v>
       </c>
       <c r="B177">
         <v>236</v>
@@ -4760,46 +4768,46 @@
         <v>419</v>
       </c>
       <c r="D177">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E177">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>147</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="str">
         <f t="shared" si="1"/>
-        <v>177.jpg</v>
+        <v>178.jpg</v>
       </c>
       <c r="B178">
         <v>236</v>
       </c>
       <c r="C178">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D178">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E178">
-        <v>393</v>
+        <v>476</v>
       </c>
       <c r="F178">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="G178">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="str">
-        <f t="shared" si="1"/>
-        <v>178.jpg</v>
+        <f t="shared" ref="A179:A242" si="2">TEXT(VALUE(MID(A178, 1, LEN(A178)-4)) + 1, "0") &amp; ".jpg"</f>
+        <v>179.jpg</v>
       </c>
       <c r="B179">
         <v>236</v>
@@ -4814,16 +4822,16 @@
         <v>476</v>
       </c>
       <c r="F179">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="G179">
-        <v>118</v>
+        <v>183</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="str">
-        <f t="shared" ref="A180:A243" si="2">TEXT(VALUE(MID(A179, 1, LEN(A179)-4)) + 1, "0") &amp; ".jpg"</f>
-        <v>179.jpg</v>
+        <f t="shared" si="2"/>
+        <v>180.jpg</v>
       </c>
       <c r="B180">
         <v>236</v>
@@ -4832,7 +4840,7 @@
         <v>511</v>
       </c>
       <c r="D180">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E180">
         <v>476</v>
@@ -4841,37 +4849,37 @@
         <v>200</v>
       </c>
       <c r="G180">
-        <v>183</v>
+        <v>63</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
-        <v>180.jpg</v>
+        <v>181.jpg</v>
       </c>
       <c r="B181">
         <v>236</v>
       </c>
       <c r="C181">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D181">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E181">
-        <v>476</v>
+        <v>395</v>
       </c>
       <c r="F181">
         <v>200</v>
       </c>
       <c r="G181">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
-        <v>181.jpg</v>
+        <v>182.jpg</v>
       </c>
       <c r="B182">
         <v>236</v>
@@ -4880,34 +4888,34 @@
         <v>419</v>
       </c>
       <c r="D182">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="E182">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F182">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G182">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
-        <v>182.jpg</v>
+        <v>183.jpg</v>
       </c>
       <c r="B183">
         <v>236</v>
       </c>
       <c r="C183">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D183">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="E183">
-        <v>389</v>
+        <v>476</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -4919,19 +4927,19 @@
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
-        <v>183.jpg</v>
+        <v>184.jpg</v>
       </c>
       <c r="B184">
         <v>236</v>
       </c>
       <c r="C184">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D184">
         <v>37</v>
       </c>
       <c r="E184">
-        <v>476</v>
+        <v>394</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -4943,7 +4951,7 @@
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
-        <v>184.jpg</v>
+        <v>185.jpg</v>
       </c>
       <c r="B185">
         <v>236</v>
@@ -4952,10 +4960,10 @@
         <v>419</v>
       </c>
       <c r="D185">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E185">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -4967,7 +4975,7 @@
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
-        <v>185.jpg</v>
+        <v>186.jpg</v>
       </c>
       <c r="B186">
         <v>236</v>
@@ -4991,7 +4999,7 @@
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
-        <v>186.jpg</v>
+        <v>187.jpg</v>
       </c>
       <c r="B187">
         <v>236</v>
@@ -5000,10 +5008,10 @@
         <v>419</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -5015,19 +5023,19 @@
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
-        <v>187.jpg</v>
+        <v>188.jpg</v>
       </c>
       <c r="B188">
         <v>236</v>
       </c>
       <c r="C188">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D188">
         <v>37</v>
       </c>
       <c r="E188">
-        <v>391</v>
+        <v>474</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -5039,19 +5047,19 @@
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
-        <v>188.jpg</v>
+        <v>189.jpg</v>
       </c>
       <c r="B189">
         <v>236</v>
       </c>
       <c r="C189">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D189">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E189">
-        <v>474</v>
+        <v>392</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -5063,67 +5071,67 @@
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
-        <v>189.jpg</v>
+        <v>190.jpg</v>
       </c>
       <c r="B190">
         <v>236</v>
       </c>
       <c r="C190">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D190">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="E190">
-        <v>392</v>
+        <v>476</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G190">
-        <v>0</v>
+        <v>255</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
-        <v>190.jpg</v>
+        <v>191.jpg</v>
       </c>
       <c r="B191">
         <v>236</v>
       </c>
       <c r="C191">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D191">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="E191">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="F191">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G191">
-        <v>255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
-        <v>191.jpg</v>
+        <v>192.jpg</v>
       </c>
       <c r="B192">
         <v>236</v>
       </c>
       <c r="C192">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D192">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E192">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -5135,13 +5143,13 @@
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="str">
         <f t="shared" si="2"/>
-        <v>192.jpg</v>
+        <v>193.jpg</v>
       </c>
       <c r="B193">
         <v>236</v>
       </c>
       <c r="C193">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -5150,22 +5158,22 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="G193">
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="str">
         <f t="shared" si="2"/>
-        <v>193.jpg</v>
+        <v>194.jpg</v>
       </c>
       <c r="B194">
         <v>236</v>
       </c>
       <c r="C194">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -5174,40 +5182,40 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="G194">
-        <v>259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="str">
         <f t="shared" si="2"/>
-        <v>194.jpg</v>
+        <v>195.jpg</v>
       </c>
       <c r="B195">
         <v>236</v>
       </c>
       <c r="C195">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G195">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="str">
         <f t="shared" si="2"/>
-        <v>195.jpg</v>
+        <v>196.jpg</v>
       </c>
       <c r="B196">
         <v>236</v>
@@ -5222,16 +5230,16 @@
         <v>396</v>
       </c>
       <c r="F196">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G196">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="str">
         <f t="shared" si="2"/>
-        <v>196.jpg</v>
+        <v>197.jpg</v>
       </c>
       <c r="B197">
         <v>236</v>
@@ -5240,70 +5248,70 @@
         <v>419</v>
       </c>
       <c r="D197">
+        <v>200</v>
+      </c>
+      <c r="E197">
+        <v>173</v>
+      </c>
+      <c r="F197">
         <v>37</v>
       </c>
-      <c r="E197">
-        <v>396</v>
-      </c>
-      <c r="F197">
-        <v>0</v>
-      </c>
       <c r="G197">
-        <v>0</v>
+        <v>236</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="str">
         <f t="shared" si="2"/>
-        <v>197.jpg</v>
+        <v>198.jpg</v>
       </c>
       <c r="B198">
         <v>236</v>
       </c>
       <c r="C198">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D198">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="E198">
-        <v>173</v>
+        <v>363</v>
       </c>
       <c r="F198">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="G198">
-        <v>236</v>
+        <v>63</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="str">
         <f t="shared" si="2"/>
-        <v>198.jpg</v>
+        <v>199.jpg</v>
       </c>
       <c r="B199">
         <v>236</v>
       </c>
       <c r="C199">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D199">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E199">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="F199">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G199">
-        <v>63</v>
+        <v>102</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="str">
         <f t="shared" si="2"/>
-        <v>199.jpg</v>
+        <v>200.jpg</v>
       </c>
       <c r="B200">
         <v>236</v>
@@ -5312,46 +5320,46 @@
         <v>419</v>
       </c>
       <c r="D200">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="E200">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="F200">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="G200">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="str">
         <f t="shared" si="2"/>
-        <v>200.jpg</v>
+        <v>201.jpg</v>
       </c>
       <c r="B201">
         <v>236</v>
       </c>
       <c r="C201">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D201">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="E201">
-        <v>392</v>
+        <v>475</v>
       </c>
       <c r="F201">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G201">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="str">
         <f t="shared" si="2"/>
-        <v>201.jpg</v>
+        <v>202.jpg</v>
       </c>
       <c r="B202">
         <v>236</v>
@@ -5363,7 +5371,7 @@
         <v>37</v>
       </c>
       <c r="E202">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -5375,7 +5383,7 @@
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="str">
         <f t="shared" si="2"/>
-        <v>202.jpg</v>
+        <v>203.jpg</v>
       </c>
       <c r="B203">
         <v>236</v>
@@ -5384,10 +5392,10 @@
         <v>511</v>
       </c>
       <c r="D203">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E203">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -5399,19 +5407,19 @@
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="str">
         <f t="shared" si="2"/>
-        <v>203.jpg</v>
+        <v>204.jpg</v>
       </c>
       <c r="B204">
         <v>236</v>
       </c>
       <c r="C204">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -5423,7 +5431,7 @@
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="str">
         <f t="shared" si="2"/>
-        <v>204.jpg</v>
+        <v>205.jpg</v>
       </c>
       <c r="B205">
         <v>236</v>
@@ -5432,58 +5440,58 @@
         <v>419</v>
       </c>
       <c r="D205">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E205">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>394</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="str">
         <f t="shared" si="2"/>
-        <v>205.jpg</v>
+        <v>206.jpg</v>
       </c>
       <c r="B206">
         <v>236</v>
       </c>
       <c r="C206">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="F206">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="G206">
-        <v>394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="str">
         <f t="shared" si="2"/>
-        <v>206.jpg</v>
+        <v>207.jpg</v>
       </c>
       <c r="B207">
         <v>236</v>
       </c>
       <c r="C207">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D207">
         <v>37</v>
       </c>
       <c r="E207">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -5495,19 +5503,19 @@
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="str">
         <f t="shared" si="2"/>
-        <v>207.jpg</v>
+        <v>208.jpg</v>
       </c>
       <c r="B208">
         <v>236</v>
       </c>
       <c r="C208">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D208">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="E208">
-        <v>389</v>
+        <v>474</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -5519,7 +5527,7 @@
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="str">
         <f t="shared" si="2"/>
-        <v>208.jpg</v>
+        <v>209.jpg</v>
       </c>
       <c r="B209">
         <v>236</v>
@@ -5528,7 +5536,7 @@
         <v>511</v>
       </c>
       <c r="D209">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E209">
         <v>474</v>
@@ -5543,7 +5551,7 @@
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="str">
         <f t="shared" si="2"/>
-        <v>209.jpg</v>
+        <v>210.jpg</v>
       </c>
       <c r="B210">
         <v>236</v>
@@ -5552,10 +5560,10 @@
         <v>511</v>
       </c>
       <c r="D210">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E210">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -5567,19 +5575,19 @@
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="str">
         <f t="shared" si="2"/>
-        <v>210.jpg</v>
+        <v>211.jpg</v>
       </c>
       <c r="B211">
         <v>236</v>
       </c>
       <c r="C211">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -5591,19 +5599,19 @@
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="str">
         <f t="shared" si="2"/>
-        <v>211.jpg</v>
+        <v>212.jpg</v>
       </c>
       <c r="B212">
         <v>236</v>
       </c>
       <c r="C212">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D212">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E212">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -5615,7 +5623,7 @@
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="str">
         <f t="shared" si="2"/>
-        <v>212.jpg</v>
+        <v>213.jpg</v>
       </c>
       <c r="B213">
         <v>236</v>
@@ -5624,10 +5632,10 @@
         <v>511</v>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -5639,7 +5647,7 @@
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="str">
         <f t="shared" si="2"/>
-        <v>213.jpg</v>
+        <v>214.jpg</v>
       </c>
       <c r="B214">
         <v>236</v>
@@ -5648,10 +5656,10 @@
         <v>511</v>
       </c>
       <c r="D214">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="E214">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -5663,7 +5671,7 @@
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="str">
         <f t="shared" si="2"/>
-        <v>214.jpg</v>
+        <v>215.jpg</v>
       </c>
       <c r="B215">
         <v>236</v>
@@ -5672,10 +5680,10 @@
         <v>511</v>
       </c>
       <c r="D215">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="E215">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -5687,7 +5695,7 @@
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="str">
         <f t="shared" si="2"/>
-        <v>215.jpg</v>
+        <v>216.jpg</v>
       </c>
       <c r="B216">
         <v>236</v>
@@ -5696,22 +5704,22 @@
         <v>511</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="G216">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="str">
         <f t="shared" si="2"/>
-        <v>216.jpg</v>
+        <v>217.jpg</v>
       </c>
       <c r="B217">
         <v>236</v>
@@ -5720,70 +5728,70 @@
         <v>511</v>
       </c>
       <c r="D217">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E217">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F217">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="G217">
-        <v>120</v>
+        <v>190</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="str">
         <f t="shared" si="2"/>
-        <v>217.jpg</v>
+        <v>218.jpg</v>
       </c>
       <c r="B218">
         <v>236</v>
       </c>
       <c r="C218">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D218">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E218">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G218">
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="str">
         <f t="shared" si="2"/>
-        <v>218.jpg</v>
+        <v>219.jpg</v>
       </c>
       <c r="B219">
         <v>236</v>
       </c>
       <c r="C219">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>303</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="str">
         <f t="shared" si="2"/>
-        <v>219.jpg</v>
+        <v>220.jpg</v>
       </c>
       <c r="B220">
         <v>236</v>
@@ -5792,22 +5800,22 @@
         <v>511</v>
       </c>
       <c r="D220">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="E220">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F220">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G220">
-        <v>303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="str">
         <f t="shared" si="2"/>
-        <v>220.jpg</v>
+        <v>221.jpg</v>
       </c>
       <c r="B221">
         <v>236</v>
@@ -5819,7 +5827,7 @@
         <v>37</v>
       </c>
       <c r="E221">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -5831,7 +5839,7 @@
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="str">
         <f t="shared" si="2"/>
-        <v>221.jpg</v>
+        <v>222.jpg</v>
       </c>
       <c r="B222">
         <v>236</v>
@@ -5840,10 +5848,10 @@
         <v>511</v>
       </c>
       <c r="D222">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E222">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -5855,13 +5863,13 @@
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="str">
         <f t="shared" si="2"/>
-        <v>222.jpg</v>
+        <v>223.jpg</v>
       </c>
       <c r="B223">
         <v>236</v>
       </c>
       <c r="C223">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -5879,7 +5887,7 @@
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="str">
         <f t="shared" si="2"/>
-        <v>223.jpg</v>
+        <v>224.jpg</v>
       </c>
       <c r="B224">
         <v>236</v>
@@ -5888,70 +5896,70 @@
         <v>419</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G224">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="str">
         <f t="shared" si="2"/>
-        <v>224.jpg</v>
+        <v>225.jpg</v>
       </c>
       <c r="B225">
-        <v>236</v>
+        <v>474</v>
       </c>
       <c r="C225">
-        <v>419</v>
+        <v>842</v>
       </c>
       <c r="D225">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E225">
-        <v>384</v>
+        <v>786</v>
       </c>
       <c r="F225">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="G225">
-        <v>256</v>
+        <v>784</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="str">
         <f t="shared" si="2"/>
-        <v>225.jpg</v>
+        <v>226.jpg</v>
       </c>
       <c r="B226">
-        <v>474</v>
+        <v>236</v>
       </c>
       <c r="C226">
-        <v>842</v>
+        <v>511</v>
       </c>
       <c r="D226">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="E226">
-        <v>786</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="G226">
-        <v>784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="str">
         <f t="shared" si="2"/>
-        <v>226.jpg</v>
+        <v>227.jpg</v>
       </c>
       <c r="B227">
         <v>236</v>
@@ -5960,10 +5968,10 @@
         <v>511</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -5975,19 +5983,19 @@
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="str">
         <f t="shared" si="2"/>
-        <v>227.jpg</v>
+        <v>228.jpg</v>
       </c>
       <c r="B228">
         <v>236</v>
       </c>
       <c r="C228">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D228">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E228">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -5999,13 +6007,13 @@
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="str">
         <f t="shared" si="2"/>
-        <v>228.jpg</v>
+        <v>229.jpg</v>
       </c>
       <c r="B229">
         <v>236</v>
       </c>
       <c r="C229">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -6023,19 +6031,19 @@
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="str">
         <f t="shared" si="2"/>
-        <v>229.jpg</v>
+        <v>230.jpg</v>
       </c>
       <c r="B230">
         <v>236</v>
       </c>
       <c r="C230">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -6047,7 +6055,7 @@
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="str">
         <f t="shared" si="2"/>
-        <v>230.jpg</v>
+        <v>231.jpg</v>
       </c>
       <c r="B231">
         <v>236</v>
@@ -6056,22 +6064,22 @@
         <v>419</v>
       </c>
       <c r="D231">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E231">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="str">
         <f t="shared" si="2"/>
-        <v>231.jpg</v>
+        <v>232.jpg</v>
       </c>
       <c r="B232">
         <v>236</v>
@@ -6080,37 +6088,37 @@
         <v>419</v>
       </c>
       <c r="D232">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="E232">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F232">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G232">
-        <v>149</v>
+        <v>102</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="str">
         <f t="shared" si="2"/>
-        <v>232.jpg</v>
+        <v>233.jpg</v>
       </c>
       <c r="B233">
         <v>236</v>
       </c>
       <c r="C233">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D233">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="E233">
-        <v>384</v>
+        <v>476</v>
       </c>
       <c r="F233">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="G233">
         <v>102</v>
@@ -6119,31 +6127,31 @@
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="str">
         <f t="shared" si="2"/>
-        <v>233.jpg</v>
+        <v>234.jpg</v>
       </c>
       <c r="B234">
         <v>236</v>
       </c>
       <c r="C234">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D234">
         <v>37</v>
       </c>
       <c r="E234">
-        <v>476</v>
+        <v>394</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G234">
-        <v>102</v>
+        <v>145</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="str">
         <f t="shared" si="2"/>
-        <v>234.jpg</v>
+        <v>235.jpg</v>
       </c>
       <c r="B235">
         <v>236</v>
@@ -6155,31 +6163,31 @@
         <v>37</v>
       </c>
       <c r="E235">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F235">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G235">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="str">
         <f t="shared" si="2"/>
-        <v>235.jpg</v>
+        <v>236.jpg</v>
       </c>
       <c r="B236">
         <v>236</v>
       </c>
       <c r="C236">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D236">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E236">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -6191,13 +6199,13 @@
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="str">
         <f t="shared" si="2"/>
-        <v>236.jpg</v>
+        <v>237.jpg</v>
       </c>
       <c r="B237">
         <v>236</v>
       </c>
       <c r="C237">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -6206,16 +6214,16 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="G237">
-        <v>0</v>
+        <v>383</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="str">
         <f t="shared" si="2"/>
-        <v>237.jpg</v>
+        <v>238.jpg</v>
       </c>
       <c r="B238">
         <v>236</v>
@@ -6224,34 +6232,34 @@
         <v>419</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="F238">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="G238">
-        <v>383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="str">
         <f t="shared" si="2"/>
-        <v>238.jpg</v>
+        <v>239.jpg</v>
       </c>
       <c r="B239">
         <v>236</v>
       </c>
       <c r="C239">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D239">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E239">
-        <v>393</v>
+        <v>476</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -6263,7 +6271,7 @@
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="str">
         <f t="shared" si="2"/>
-        <v>239.jpg</v>
+        <v>240.jpg</v>
       </c>
       <c r="B240">
         <v>236</v>
@@ -6272,46 +6280,46 @@
         <v>511</v>
       </c>
       <c r="D240">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>173</v>
+      </c>
+      <c r="G240">
         <v>476</v>
-      </c>
-      <c r="F240">
-        <v>0</v>
-      </c>
-      <c r="G240">
-        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="str">
         <f t="shared" si="2"/>
-        <v>240.jpg</v>
+        <v>241.jpg</v>
       </c>
       <c r="B241">
         <v>236</v>
       </c>
       <c r="C241">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D241">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="F241">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="G241">
-        <v>476</v>
+        <v>256</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="str">
         <f t="shared" si="2"/>
-        <v>241.jpg</v>
+        <v>242.jpg</v>
       </c>
       <c r="B242">
         <v>236</v>
@@ -6323,19 +6331,19 @@
         <v>37</v>
       </c>
       <c r="E242">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="F242">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G242">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="str">
-        <f t="shared" si="2"/>
-        <v>242.jpg</v>
+        <f t="shared" ref="A243:A304" si="3">TEXT(VALUE(MID(A242, 1, LEN(A242)-4)) + 1, "0") &amp; ".jpg"</f>
+        <v>243.jpg</v>
       </c>
       <c r="B243">
         <v>236</v>
@@ -6347,7 +6355,7 @@
         <v>37</v>
       </c>
       <c r="E243">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -6358,20 +6366,20 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="str">
-        <f t="shared" ref="A244:A307" si="3">TEXT(VALUE(MID(A243, 1, LEN(A243)-4)) + 1, "0") &amp; ".jpg"</f>
-        <v>243.jpg</v>
+        <f t="shared" si="3"/>
+        <v>244.jpg</v>
       </c>
       <c r="B244">
         <v>236</v>
       </c>
       <c r="C244">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D244">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E244">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -6383,7 +6391,7 @@
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="str">
         <f t="shared" si="3"/>
-        <v>244.jpg</v>
+        <v>245.jpg</v>
       </c>
       <c r="B245">
         <v>236</v>
@@ -6392,10 +6400,10 @@
         <v>511</v>
       </c>
       <c r="D245">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -6407,7 +6415,7 @@
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="str">
         <f t="shared" si="3"/>
-        <v>245.jpg</v>
+        <v>246.jpg</v>
       </c>
       <c r="B246">
         <v>236</v>
@@ -6416,10 +6424,10 @@
         <v>511</v>
       </c>
       <c r="D246">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E246">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -6431,7 +6439,7 @@
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="str">
         <f t="shared" si="3"/>
-        <v>246.jpg</v>
+        <v>247.jpg</v>
       </c>
       <c r="B247">
         <v>236</v>
@@ -6440,10 +6448,10 @@
         <v>511</v>
       </c>
       <c r="D247">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -6455,7 +6463,7 @@
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="str">
         <f t="shared" si="3"/>
-        <v>247.jpg</v>
+        <v>248.jpg</v>
       </c>
       <c r="B248">
         <v>236</v>
@@ -6464,7 +6472,7 @@
         <v>511</v>
       </c>
       <c r="D248">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="E248">
         <v>476</v>
@@ -6479,7 +6487,7 @@
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="str">
         <f t="shared" si="3"/>
-        <v>248.jpg</v>
+        <v>249.jpg</v>
       </c>
       <c r="B249">
         <v>236</v>
@@ -6488,7 +6496,7 @@
         <v>511</v>
       </c>
       <c r="D249">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E249">
         <v>476</v>
@@ -6503,19 +6511,19 @@
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="str">
         <f t="shared" si="3"/>
-        <v>249.jpg</v>
+        <v>250.jpg</v>
       </c>
       <c r="B250">
         <v>236</v>
       </c>
       <c r="C250">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D250">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E250">
-        <v>476</v>
+        <v>386</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -6527,19 +6535,19 @@
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="str">
         <f t="shared" si="3"/>
-        <v>250.jpg</v>
+        <v>251.jpg</v>
       </c>
       <c r="B251">
         <v>236</v>
       </c>
       <c r="C251">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D251">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="E251">
-        <v>386</v>
+        <v>476</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -6551,19 +6559,19 @@
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="str">
         <f t="shared" si="3"/>
-        <v>251.jpg</v>
+        <v>252.jpg</v>
       </c>
       <c r="B252">
         <v>236</v>
       </c>
       <c r="C252">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D252">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="E252">
-        <v>476</v>
+        <v>392</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -6575,19 +6583,19 @@
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="str">
         <f t="shared" si="3"/>
-        <v>252.jpg</v>
+        <v>253.jpg</v>
       </c>
       <c r="B253">
         <v>236</v>
       </c>
       <c r="C253">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D253">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="E253">
-        <v>392</v>
+        <v>476</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -6599,7 +6607,7 @@
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="str">
         <f t="shared" si="3"/>
-        <v>253.jpg</v>
+        <v>254.jpg</v>
       </c>
       <c r="B254">
         <v>236</v>
@@ -6608,22 +6616,22 @@
         <v>511</v>
       </c>
       <c r="D254">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="E254">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F254">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="G254">
-        <v>0</v>
+        <v>119</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="str">
         <f t="shared" si="3"/>
-        <v>254.jpg</v>
+        <v>255.jpg</v>
       </c>
       <c r="B255">
         <v>236</v>
@@ -6632,22 +6640,22 @@
         <v>511</v>
       </c>
       <c r="D255">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E255">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F255">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="G255">
-        <v>119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="str">
         <f t="shared" si="3"/>
-        <v>255.jpg</v>
+        <v>256.jpg</v>
       </c>
       <c r="B256">
         <v>236</v>
@@ -6656,22 +6664,22 @@
         <v>511</v>
       </c>
       <c r="D256">
+        <v>118</v>
+      </c>
+      <c r="E256">
+        <v>476</v>
+      </c>
+      <c r="F256">
         <v>37</v>
       </c>
-      <c r="E256">
-        <v>473</v>
-      </c>
-      <c r="F256">
-        <v>0</v>
-      </c>
       <c r="G256">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="str">
         <f t="shared" si="3"/>
-        <v>256.jpg</v>
+        <v>257.jpg</v>
       </c>
       <c r="B257">
         <v>236</v>
@@ -6680,28 +6688,28 @@
         <v>511</v>
       </c>
       <c r="D257">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="E257">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G257">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="str">
         <f t="shared" si="3"/>
-        <v>257.jpg</v>
+        <v>258.jpg</v>
       </c>
       <c r="B258">
         <v>236</v>
       </c>
       <c r="C258">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -6719,7 +6727,7 @@
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="str">
         <f t="shared" si="3"/>
-        <v>258.jpg</v>
+        <v>259.jpg</v>
       </c>
       <c r="B259">
         <v>236</v>
@@ -6728,22 +6736,22 @@
         <v>419</v>
       </c>
       <c r="D259">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="F259">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="G259">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="str">
         <f t="shared" si="3"/>
-        <v>259.jpg</v>
+        <v>260.jpg</v>
       </c>
       <c r="B260">
         <v>236</v>
@@ -6752,22 +6760,22 @@
         <v>419</v>
       </c>
       <c r="D260">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E260">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="F260">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="G260">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="str">
         <f t="shared" si="3"/>
-        <v>260.jpg</v>
+        <v>261.jpg</v>
       </c>
       <c r="B261">
         <v>236</v>
@@ -6776,22 +6784,22 @@
         <v>419</v>
       </c>
       <c r="D261">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E261">
         <v>386</v>
       </c>
       <c r="F261">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="G261">
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="str">
         <f t="shared" si="3"/>
-        <v>261.jpg</v>
+        <v>262.jpg</v>
       </c>
       <c r="B262">
         <v>236</v>
@@ -6800,46 +6808,46 @@
         <v>419</v>
       </c>
       <c r="D262">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="E262">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F262">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c r="G262">
-        <v>259</v>
+        <v>418</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="str">
         <f t="shared" si="3"/>
-        <v>262.jpg</v>
+        <v>263.jpg</v>
       </c>
       <c r="B263">
         <v>236</v>
       </c>
       <c r="C263">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D263">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="E263">
-        <v>383</v>
+        <v>475</v>
       </c>
       <c r="F263">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="G263">
-        <v>418</v>
+        <v>191</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="str">
         <f t="shared" si="3"/>
-        <v>263.jpg</v>
+        <v>264.jpg</v>
       </c>
       <c r="B264">
         <v>236</v>
@@ -6848,22 +6856,22 @@
         <v>511</v>
       </c>
       <c r="D264">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E264">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F264">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="G264">
-        <v>191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="str">
         <f t="shared" si="3"/>
-        <v>264.jpg</v>
+        <v>265.jpg</v>
       </c>
       <c r="B265">
         <v>236</v>
@@ -6872,22 +6880,22 @@
         <v>511</v>
       </c>
       <c r="D265">
+        <v>90</v>
+      </c>
+      <c r="E265">
+        <v>477</v>
+      </c>
+      <c r="F265">
         <v>37</v>
       </c>
-      <c r="E265">
-        <v>471</v>
-      </c>
-      <c r="F265">
-        <v>0</v>
-      </c>
       <c r="G265">
-        <v>0</v>
+        <v>303</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="str">
         <f t="shared" si="3"/>
-        <v>265.jpg</v>
+        <v>266.jpg</v>
       </c>
       <c r="B266">
         <v>236</v>
@@ -6896,70 +6904,70 @@
         <v>511</v>
       </c>
       <c r="D266">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E266">
-        <v>477</v>
+        <v>0</v>
       </c>
       <c r="F266">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G266">
-        <v>303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="str">
         <f t="shared" si="3"/>
-        <v>266.jpg</v>
+        <v>267.jpg</v>
       </c>
       <c r="B267">
-        <v>236</v>
+        <v>474</v>
       </c>
       <c r="C267">
-        <v>511</v>
+        <v>842</v>
       </c>
       <c r="D267">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="F267">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="G267">
-        <v>0</v>
+        <v>782</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="str">
         <f t="shared" si="3"/>
-        <v>267.jpg</v>
+        <v>268.jpg</v>
       </c>
       <c r="B268">
-        <v>474</v>
+        <v>236</v>
       </c>
       <c r="C268">
-        <v>842</v>
+        <v>511</v>
       </c>
       <c r="D268">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E268">
-        <v>787</v>
+        <v>0</v>
       </c>
       <c r="F268">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="G268">
-        <v>782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="str">
         <f t="shared" si="3"/>
-        <v>268.jpg</v>
+        <v>269.jpg</v>
       </c>
       <c r="B269">
         <v>236</v>
@@ -6983,7 +6991,7 @@
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="str">
         <f t="shared" si="3"/>
-        <v>269.jpg</v>
+        <v>270.jpg</v>
       </c>
       <c r="B270">
         <v>236</v>
@@ -6992,10 +7000,10 @@
         <v>511</v>
       </c>
       <c r="D270">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E270">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -7007,7 +7015,7 @@
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="str">
         <f t="shared" si="3"/>
-        <v>270.jpg</v>
+        <v>271.jpg</v>
       </c>
       <c r="B271">
         <v>236</v>
@@ -7016,10 +7024,10 @@
         <v>511</v>
       </c>
       <c r="D271">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E271">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -7031,7 +7039,7 @@
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="str">
         <f t="shared" si="3"/>
-        <v>271.jpg</v>
+        <v>272.jpg</v>
       </c>
       <c r="B272">
         <v>236</v>
@@ -7040,10 +7048,10 @@
         <v>511</v>
       </c>
       <c r="D272">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E272">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -7055,7 +7063,7 @@
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="str">
         <f t="shared" si="3"/>
-        <v>272.jpg</v>
+        <v>273.jpg</v>
       </c>
       <c r="B273">
         <v>236</v>
@@ -7064,22 +7072,22 @@
         <v>511</v>
       </c>
       <c r="D273">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E273">
         <v>476</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G273">
-        <v>0</v>
+        <v>241</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="str">
         <f t="shared" si="3"/>
-        <v>273.jpg</v>
+        <v>274.jpg</v>
       </c>
       <c r="B274">
         <v>236</v>
@@ -7088,22 +7096,22 @@
         <v>511</v>
       </c>
       <c r="D274">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="E274">
         <v>476</v>
       </c>
       <c r="F274">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="G274">
-        <v>241</v>
+        <v>183</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="str">
         <f t="shared" si="3"/>
-        <v>274.jpg</v>
+        <v>275.jpg</v>
       </c>
       <c r="B275">
         <v>236</v>
@@ -7112,22 +7120,22 @@
         <v>511</v>
       </c>
       <c r="D275">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E275">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="F275">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G275">
-        <v>183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="str">
         <f t="shared" si="3"/>
-        <v>275.jpg</v>
+        <v>276.jpg</v>
       </c>
       <c r="B276">
         <v>236</v>
@@ -7136,10 +7144,10 @@
         <v>511</v>
       </c>
       <c r="D276">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -7149,9 +7157,8 @@
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A277" t="str">
-        <f t="shared" si="3"/>
-        <v>276.jpg</v>
+      <c r="A277" t="s">
+        <v>57</v>
       </c>
       <c r="B277">
         <v>236</v>
@@ -7160,10 +7167,10 @@
         <v>511</v>
       </c>
       <c r="D277">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E277">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="F277">
         <v>0</v>
@@ -7174,32 +7181,56 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="str">
-        <f t="shared" si="3"/>
-        <v>277.jpg</v>
+        <f>TEXT(VALUE(MID(A277, 1, LEN(A277)-4)) + 1, "0") &amp; ".jpg"</f>
+        <v>280.jpg</v>
       </c>
       <c r="B278">
         <v>236</v>
       </c>
       <c r="C278">
         <v>511</v>
+      </c>
+      <c r="D278">
+        <v>37</v>
+      </c>
+      <c r="E278">
+        <v>476</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="str">
         <f t="shared" si="3"/>
-        <v>278.jpg</v>
+        <v>281.jpg</v>
       </c>
       <c r="B279">
         <v>236</v>
       </c>
       <c r="C279">
         <v>511</v>
+      </c>
+      <c r="D279">
+        <v>202</v>
+      </c>
+      <c r="E279">
+        <v>62</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="str">
         <f t="shared" si="3"/>
-        <v>279.jpg</v>
+        <v>282.jpg</v>
       </c>
       <c r="B280">
         <v>236</v>
@@ -7214,16 +7245,16 @@
         <v>0</v>
       </c>
       <c r="F280">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G280">
-        <v>0</v>
+        <v>362</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="str">
         <f t="shared" si="3"/>
-        <v>280.jpg</v>
+        <v>283.jpg</v>
       </c>
       <c r="B281">
         <v>236</v>
@@ -7232,10 +7263,10 @@
         <v>511</v>
       </c>
       <c r="D281">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="E281">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -7247,31 +7278,31 @@
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="str">
         <f t="shared" si="3"/>
-        <v>281.jpg</v>
+        <v>284.jpg</v>
       </c>
       <c r="B282">
         <v>236</v>
       </c>
       <c r="C282">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D282">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="E282">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="F282">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G282">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" t="str">
         <f t="shared" si="3"/>
-        <v>282.jpg</v>
+        <v>285.jpg</v>
       </c>
       <c r="B283">
         <v>236</v>
@@ -7280,34 +7311,34 @@
         <v>511</v>
       </c>
       <c r="D283">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E283">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="F283">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G283">
-        <v>362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" t="str">
         <f t="shared" si="3"/>
-        <v>283.jpg</v>
+        <v>286.jpg</v>
       </c>
       <c r="B284">
         <v>236</v>
       </c>
       <c r="C284">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D284">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="E284">
-        <v>474</v>
+        <v>390</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -7319,31 +7350,31 @@
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" t="str">
         <f t="shared" si="3"/>
-        <v>284.jpg</v>
+        <v>287.jpg</v>
       </c>
       <c r="B285">
         <v>236</v>
       </c>
       <c r="C285">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D285">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E285">
-        <v>391</v>
+        <v>476</v>
       </c>
       <c r="F285">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G285">
-        <v>149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" t="str">
         <f t="shared" si="3"/>
-        <v>285.jpg</v>
+        <v>288.jpg</v>
       </c>
       <c r="B286">
         <v>236</v>
@@ -7358,28 +7389,28 @@
         <v>476</v>
       </c>
       <c r="F286">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G286">
-        <v>0</v>
+        <v>362</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" t="str">
         <f t="shared" si="3"/>
-        <v>286.jpg</v>
+        <v>289.jpg</v>
       </c>
       <c r="B287">
         <v>236</v>
       </c>
       <c r="C287">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D287">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="E287">
-        <v>390</v>
+        <v>476</v>
       </c>
       <c r="F287">
         <v>0</v>
@@ -7391,7 +7422,7 @@
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" t="str">
         <f t="shared" si="3"/>
-        <v>287.jpg</v>
+        <v>290.jpg</v>
       </c>
       <c r="B288">
         <v>236</v>
@@ -7400,7 +7431,7 @@
         <v>511</v>
       </c>
       <c r="D288">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E288">
         <v>476</v>
@@ -7415,7 +7446,7 @@
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" t="str">
         <f t="shared" si="3"/>
-        <v>288.jpg</v>
+        <v>291.jpg</v>
       </c>
       <c r="B289">
         <v>236</v>
@@ -7424,22 +7455,22 @@
         <v>511</v>
       </c>
       <c r="D289">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E289">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="F289">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="G289">
-        <v>362</v>
+        <v>152</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" t="str">
         <f t="shared" si="3"/>
-        <v>289.jpg</v>
+        <v>292.jpg</v>
       </c>
       <c r="B290">
         <v>236</v>
@@ -7448,7 +7479,7 @@
         <v>511</v>
       </c>
       <c r="D290">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E290">
         <v>476</v>
@@ -7463,19 +7494,19 @@
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" t="str">
         <f t="shared" si="3"/>
-        <v>290.jpg</v>
+        <v>293.jpg</v>
       </c>
       <c r="B291">
         <v>236</v>
       </c>
       <c r="C291">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D291">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E291">
-        <v>476</v>
+        <v>389</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -7487,7 +7518,7 @@
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" t="str">
         <f t="shared" si="3"/>
-        <v>291.jpg</v>
+        <v>294.jpg</v>
       </c>
       <c r="B292">
         <v>236</v>
@@ -7496,34 +7527,34 @@
         <v>511</v>
       </c>
       <c r="D292">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="E292">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="F292">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="G292">
-        <v>152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" t="str">
         <f t="shared" si="3"/>
-        <v>292.jpg</v>
+        <v>295.jpg</v>
       </c>
       <c r="B293">
         <v>236</v>
       </c>
       <c r="C293">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D293">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E293">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -7535,19 +7566,19 @@
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" t="str">
         <f t="shared" si="3"/>
-        <v>293.jpg</v>
+        <v>296.jpg</v>
       </c>
       <c r="B294">
         <v>236</v>
       </c>
       <c r="C294">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D294">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="E294">
-        <v>389</v>
+        <v>476</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -7559,7 +7590,7 @@
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" t="str">
         <f t="shared" si="3"/>
-        <v>294.jpg</v>
+        <v>297.jpg</v>
       </c>
       <c r="B295">
         <v>236</v>
@@ -7568,7 +7599,7 @@
         <v>511</v>
       </c>
       <c r="D295">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="E295">
         <v>476</v>
@@ -7583,7 +7614,7 @@
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" t="str">
         <f t="shared" si="3"/>
-        <v>295.jpg</v>
+        <v>298.jpg</v>
       </c>
       <c r="B296">
         <v>236</v>
@@ -7592,10 +7623,10 @@
         <v>419</v>
       </c>
       <c r="D296">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E296">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -7607,7 +7638,7 @@
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" t="str">
         <f t="shared" si="3"/>
-        <v>296.jpg</v>
+        <v>299.jpg</v>
       </c>
       <c r="B297">
         <v>236</v>
@@ -7616,10 +7647,10 @@
         <v>511</v>
       </c>
       <c r="D297">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="E297">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -7631,31 +7662,31 @@
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="str">
         <f t="shared" si="3"/>
-        <v>297.jpg</v>
+        <v>300.jpg</v>
       </c>
       <c r="B298">
         <v>236</v>
       </c>
       <c r="C298">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D298">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E298">
-        <v>476</v>
+        <v>205</v>
       </c>
       <c r="F298">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G298">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" t="str">
         <f t="shared" si="3"/>
-        <v>298.jpg</v>
+        <v>301.jpg</v>
       </c>
       <c r="B299">
         <v>236</v>
@@ -7664,10 +7695,10 @@
         <v>419</v>
       </c>
       <c r="D299">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E299">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F299">
         <v>0</v>
@@ -7679,7 +7710,7 @@
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" t="str">
         <f t="shared" si="3"/>
-        <v>299.jpg</v>
+        <v>302.jpg</v>
       </c>
       <c r="B300">
         <v>236</v>
@@ -7688,70 +7719,70 @@
         <v>511</v>
       </c>
       <c r="D300">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="F300">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="G300">
-        <v>0</v>
+        <v>476</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" t="str">
         <f t="shared" si="3"/>
-        <v>300.jpg</v>
+        <v>303.jpg</v>
       </c>
       <c r="B301">
         <v>236</v>
       </c>
       <c r="C301">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D301">
         <v>37</v>
       </c>
       <c r="E301">
-        <v>205</v>
+        <v>475</v>
       </c>
       <c r="F301">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="G301">
-        <v>39</v>
+        <v>476</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" t="str">
         <f t="shared" si="3"/>
-        <v>301.jpg</v>
+        <v>304.jpg</v>
       </c>
       <c r="B302">
         <v>236</v>
       </c>
       <c r="C302">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D302">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E302">
-        <v>391</v>
+        <v>476</v>
       </c>
       <c r="F302">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="G302">
-        <v>0</v>
+        <v>124</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" t="str">
         <f t="shared" si="3"/>
-        <v>302.jpg</v>
+        <v>305.jpg</v>
       </c>
       <c r="B303">
         <v>236</v>
@@ -7760,22 +7791,22 @@
         <v>511</v>
       </c>
       <c r="D303">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="E303">
         <v>476</v>
       </c>
       <c r="F303">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="G303">
-        <v>476</v>
+        <v>62</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" t="str">
         <f t="shared" si="3"/>
-        <v>303.jpg</v>
+        <v>306.jpg</v>
       </c>
       <c r="B304">
         <v>236</v>
@@ -7784,70 +7815,70 @@
         <v>511</v>
       </c>
       <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
         <v>37</v>
       </c>
-      <c r="E304">
-        <v>475</v>
-      </c>
-      <c r="F304">
-        <v>145</v>
-      </c>
       <c r="G304">
-        <v>476</v>
+        <v>183</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="str">
-        <f t="shared" si="3"/>
-        <v>304.jpg</v>
+        <f t="shared" ref="A305:A366" si="4">TEXT(VALUE(MID(A304, 1, LEN(A304)-4)) + 1, "0") &amp; ".jpg"</f>
+        <v>307.jpg</v>
       </c>
       <c r="B305">
         <v>236</v>
       </c>
       <c r="C305">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D305">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E305">
-        <v>476</v>
+        <v>393</v>
       </c>
       <c r="F305">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="G305">
-        <v>124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="str">
-        <f t="shared" si="3"/>
-        <v>305.jpg</v>
+        <f t="shared" si="4"/>
+        <v>308.jpg</v>
       </c>
       <c r="B306">
         <v>236</v>
       </c>
       <c r="C306">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D306">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="E306">
-        <v>476</v>
+        <v>386</v>
       </c>
       <c r="F306">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G306">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="str">
-        <f t="shared" si="3"/>
-        <v>306.jpg</v>
+        <f t="shared" si="4"/>
+        <v>309.jpg</v>
       </c>
       <c r="B307">
         <v>236</v>
@@ -7862,16 +7893,16 @@
         <v>0</v>
       </c>
       <c r="F307">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G307">
-        <v>183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="str">
-        <f t="shared" ref="A308:A371" si="4">TEXT(VALUE(MID(A307, 1, LEN(A307)-4)) + 1, "0") &amp; ".jpg"</f>
-        <v>307.jpg</v>
+        <f t="shared" si="4"/>
+        <v>310.jpg</v>
       </c>
       <c r="B308">
         <v>236</v>
@@ -7880,10 +7911,10 @@
         <v>419</v>
       </c>
       <c r="D308">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="E308">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -7895,103 +7926,103 @@
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="str">
         <f t="shared" si="4"/>
-        <v>308.jpg</v>
+        <v>311.jpg</v>
       </c>
       <c r="B309">
         <v>236</v>
       </c>
       <c r="C309">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D309">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="E309">
-        <v>386</v>
+        <v>476</v>
       </c>
       <c r="F309">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G309">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="str">
         <f t="shared" si="4"/>
-        <v>309.jpg</v>
+        <v>312.jpg</v>
       </c>
       <c r="B310">
         <v>236</v>
       </c>
       <c r="C310">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D310">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E310">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="F310">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="G310">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="str">
         <f t="shared" si="4"/>
-        <v>310.jpg</v>
+        <v>313.jpg</v>
       </c>
       <c r="B311">
         <v>236</v>
       </c>
       <c r="C311">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D311">
         <v>37</v>
       </c>
       <c r="E311">
-        <v>390</v>
+        <v>476</v>
       </c>
       <c r="F311">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="G311">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="str">
         <f t="shared" si="4"/>
-        <v>311.jpg</v>
+        <v>314.jpg</v>
       </c>
       <c r="B312">
         <v>236</v>
       </c>
       <c r="C312">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D312">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="E312">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="F312">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G312">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="str">
         <f t="shared" si="4"/>
-        <v>312.jpg</v>
+        <v>315.jpg</v>
       </c>
       <c r="B313">
         <v>236</v>
@@ -8000,22 +8031,22 @@
         <v>419</v>
       </c>
       <c r="D313">
+        <v>145</v>
+      </c>
+      <c r="E313">
+        <v>381</v>
+      </c>
+      <c r="F313">
         <v>37</v>
       </c>
-      <c r="E313">
-        <v>418</v>
-      </c>
-      <c r="F313">
-        <v>205</v>
-      </c>
       <c r="G313">
-        <v>30</v>
+        <v>231</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="str">
         <f t="shared" si="4"/>
-        <v>313.jpg</v>
+        <v>316.jpg</v>
       </c>
       <c r="B314">
         <v>236</v>
@@ -8024,34 +8055,33 @@
         <v>511</v>
       </c>
       <c r="D314">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E314">
         <v>476</v>
       </c>
       <c r="F314">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="G314">
-        <v>300</v>
+        <v>190</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A315" t="str">
-        <f t="shared" si="4"/>
-        <v>314.jpg</v>
+      <c r="A315" t="s">
+        <v>59</v>
       </c>
       <c r="B315">
         <v>236</v>
       </c>
       <c r="C315">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D315">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E315">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -8063,31 +8093,31 @@
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="str">
         <f t="shared" si="4"/>
-        <v>315.jpg</v>
+        <v>320.jpg</v>
       </c>
       <c r="B316">
         <v>236</v>
       </c>
       <c r="C316">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D316">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="E316">
-        <v>381</v>
+        <v>476</v>
       </c>
       <c r="F316">
         <v>37</v>
       </c>
       <c r="G316">
-        <v>231</v>
+        <v>308</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="str">
         <f t="shared" si="4"/>
-        <v>316.jpg</v>
+        <v>321.jpg</v>
       </c>
       <c r="B317">
         <v>236</v>
@@ -8096,58 +8126,82 @@
         <v>511</v>
       </c>
       <c r="D317">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E317">
         <v>476</v>
       </c>
       <c r="F317">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G317">
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="str">
         <f t="shared" si="4"/>
-        <v>317.jpg</v>
+        <v>322.jpg</v>
       </c>
       <c r="B318">
         <v>236</v>
       </c>
       <c r="C318">
-        <v>511</v>
+        <v>419</v>
+      </c>
+      <c r="D318">
+        <v>37</v>
+      </c>
+      <c r="E318">
+        <v>387</v>
+      </c>
+      <c r="F318">
+        <v>200</v>
+      </c>
+      <c r="G318">
+        <v>256</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="str">
         <f t="shared" si="4"/>
-        <v>318.jpg</v>
+        <v>323.jpg</v>
       </c>
       <c r="B319">
         <v>236</v>
       </c>
       <c r="C319">
         <v>511</v>
+      </c>
+      <c r="D319">
+        <v>37</v>
+      </c>
+      <c r="E319">
+        <v>245</v>
+      </c>
+      <c r="F319">
+        <v>145</v>
+      </c>
+      <c r="G319">
+        <v>188</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="str">
         <f t="shared" si="4"/>
-        <v>319.jpg</v>
+        <v>324.jpg</v>
       </c>
       <c r="B320">
         <v>236</v>
       </c>
       <c r="C320">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D320">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E320">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="F320">
         <v>0</v>
@@ -8159,7 +8213,7 @@
     <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" t="str">
         <f t="shared" si="4"/>
-        <v>320.jpg</v>
+        <v>325.jpg</v>
       </c>
       <c r="B321">
         <v>236</v>
@@ -8168,22 +8222,22 @@
         <v>511</v>
       </c>
       <c r="D321">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="E321">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="F321">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G321">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" t="str">
         <f t="shared" si="4"/>
-        <v>321.jpg</v>
+        <v>326.jpg</v>
       </c>
       <c r="B322">
         <v>236</v>
@@ -8192,10 +8246,10 @@
         <v>511</v>
       </c>
       <c r="D322">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E322">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -8207,31 +8261,31 @@
     <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" t="str">
         <f t="shared" si="4"/>
-        <v>322.jpg</v>
+        <v>327.jpg</v>
       </c>
       <c r="B323">
         <v>236</v>
       </c>
       <c r="C323">
-        <v>419</v>
+        <v>354</v>
       </c>
       <c r="D323">
         <v>37</v>
       </c>
       <c r="E323">
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="F323">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G323">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" t="str">
         <f t="shared" si="4"/>
-        <v>323.jpg</v>
+        <v>328.jpg</v>
       </c>
       <c r="B324">
         <v>236</v>
@@ -8240,22 +8294,22 @@
         <v>511</v>
       </c>
       <c r="D324">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E324">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="F324">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="G324">
-        <v>188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" t="str">
         <f t="shared" si="4"/>
-        <v>324.jpg</v>
+        <v>329.jpg</v>
       </c>
       <c r="B325">
         <v>236</v>
@@ -8264,10 +8318,10 @@
         <v>419</v>
       </c>
       <c r="D325">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E325">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -8279,7 +8333,7 @@
     <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" t="str">
         <f t="shared" si="4"/>
-        <v>325.jpg</v>
+        <v>330.jpg</v>
       </c>
       <c r="B326">
         <v>236</v>
@@ -8303,7 +8357,7 @@
     <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" t="str">
         <f t="shared" si="4"/>
-        <v>326.jpg</v>
+        <v>331.jpg</v>
       </c>
       <c r="B327">
         <v>236</v>
@@ -8312,10 +8366,10 @@
         <v>511</v>
       </c>
       <c r="D327">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E327">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -8327,37 +8381,37 @@
     <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" t="str">
         <f t="shared" si="4"/>
-        <v>327.jpg</v>
+        <v>332.jpg</v>
       </c>
       <c r="B328">
         <v>236</v>
       </c>
       <c r="C328">
-        <v>354</v>
+        <v>511</v>
       </c>
       <c r="D328">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="E328">
-        <v>316</v>
+        <v>244</v>
       </c>
       <c r="F328">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="G328">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" t="str">
         <f t="shared" si="4"/>
-        <v>328.jpg</v>
+        <v>333.jpg</v>
       </c>
       <c r="B329">
         <v>236</v>
       </c>
       <c r="C329">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D329">
         <v>0</v>
@@ -8375,19 +8429,19 @@
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" t="str">
         <f t="shared" si="4"/>
-        <v>329.jpg</v>
+        <v>334.jpg</v>
       </c>
       <c r="B330">
         <v>236</v>
       </c>
       <c r="C330">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D330">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="E330">
-        <v>36</v>
+        <v>476</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -8399,19 +8453,19 @@
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" t="str">
         <f t="shared" si="4"/>
-        <v>330.jpg</v>
+        <v>335.jpg</v>
       </c>
       <c r="B331">
         <v>236</v>
       </c>
       <c r="C331">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D331">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E331">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -8423,7 +8477,7 @@
     <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" t="str">
         <f t="shared" si="4"/>
-        <v>331.jpg</v>
+        <v>336.jpg</v>
       </c>
       <c r="B332">
         <v>236</v>
@@ -8432,22 +8486,22 @@
         <v>511</v>
       </c>
       <c r="D332">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="E332">
         <v>476</v>
       </c>
       <c r="F332">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G332">
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" t="str">
         <f t="shared" si="4"/>
-        <v>332.jpg</v>
+        <v>337.jpg</v>
       </c>
       <c r="B333">
         <v>236</v>
@@ -8456,28 +8510,28 @@
         <v>511</v>
       </c>
       <c r="D333">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="E333">
-        <v>244</v>
+        <v>476</v>
       </c>
       <c r="F333">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="G333">
-        <v>242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" t="str">
         <f t="shared" si="4"/>
-        <v>333.jpg</v>
+        <v>338.jpg</v>
       </c>
       <c r="B334">
         <v>236</v>
       </c>
       <c r="C334">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -8495,7 +8549,7 @@
     <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" t="str">
         <f t="shared" si="4"/>
-        <v>334.jpg</v>
+        <v>339.jpg</v>
       </c>
       <c r="B335">
         <v>236</v>
@@ -8504,10 +8558,10 @@
         <v>511</v>
       </c>
       <c r="D335">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E335">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -8519,19 +8573,19 @@
     <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" t="str">
         <f t="shared" si="4"/>
-        <v>335.jpg</v>
+        <v>340.jpg</v>
       </c>
       <c r="B336">
         <v>236</v>
       </c>
       <c r="C336">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D336">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E336">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -8543,31 +8597,31 @@
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" t="str">
         <f t="shared" si="4"/>
-        <v>336.jpg</v>
+        <v>341.jpg</v>
       </c>
       <c r="B337">
         <v>236</v>
       </c>
       <c r="C337">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D337">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="E337">
-        <v>476</v>
+        <v>384</v>
       </c>
       <c r="F337">
         <v>37</v>
       </c>
       <c r="G337">
-        <v>181</v>
+        <v>258</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" t="str">
         <f t="shared" si="4"/>
-        <v>337.jpg</v>
+        <v>342.jpg</v>
       </c>
       <c r="B338">
         <v>236</v>
@@ -8576,22 +8630,22 @@
         <v>511</v>
       </c>
       <c r="D338">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="E338">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F338">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G338">
-        <v>0</v>
+        <v>239</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" t="str">
         <f t="shared" si="4"/>
-        <v>338.jpg</v>
+        <v>343.jpg</v>
       </c>
       <c r="B339">
         <v>236</v>
@@ -8606,16 +8660,16 @@
         <v>0</v>
       </c>
       <c r="F339">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G339">
-        <v>0</v>
+        <v>364</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" t="str">
         <f t="shared" si="4"/>
-        <v>339.jpg</v>
+        <v>344.jpg</v>
       </c>
       <c r="B340">
         <v>236</v>
@@ -8639,7 +8693,7 @@
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" t="str">
         <f t="shared" si="4"/>
-        <v>340.jpg</v>
+        <v>345.jpg</v>
       </c>
       <c r="B341">
         <v>236</v>
@@ -8648,10 +8702,10 @@
         <v>511</v>
       </c>
       <c r="D341">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E341">
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -8663,31 +8717,31 @@
     <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" t="str">
         <f t="shared" si="4"/>
-        <v>341.jpg</v>
+        <v>346.jpg</v>
       </c>
       <c r="B342">
         <v>236</v>
       </c>
       <c r="C342">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D342">
         <v>37</v>
       </c>
       <c r="E342">
-        <v>384</v>
+        <v>476</v>
       </c>
       <c r="F342">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G342">
-        <v>258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" t="str">
         <f t="shared" si="4"/>
-        <v>342.jpg</v>
+        <v>347.jpg</v>
       </c>
       <c r="B343">
         <v>236</v>
@@ -8696,22 +8750,22 @@
         <v>511</v>
       </c>
       <c r="D343">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="E343">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F343">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="G343">
-        <v>239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" t="str">
         <f t="shared" si="4"/>
-        <v>343.jpg</v>
+        <v>348.jpg</v>
       </c>
       <c r="B344">
         <v>236</v>
@@ -8720,22 +8774,22 @@
         <v>511</v>
       </c>
       <c r="D344">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="E344">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="F344">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G344">
-        <v>364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" t="str">
         <f t="shared" si="4"/>
-        <v>344.jpg</v>
+        <v>349.jpg</v>
       </c>
       <c r="B345">
         <v>236</v>
@@ -8744,10 +8798,10 @@
         <v>511</v>
       </c>
       <c r="D345">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E345">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -8759,7 +8813,7 @@
     <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" t="str">
         <f t="shared" si="4"/>
-        <v>345.jpg</v>
+        <v>350.jpg</v>
       </c>
       <c r="B346">
         <v>236</v>
@@ -8771,7 +8825,7 @@
         <v>64</v>
       </c>
       <c r="E346">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -8783,7 +8837,7 @@
     <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" t="str">
         <f t="shared" si="4"/>
-        <v>346.jpg</v>
+        <v>351.jpg</v>
       </c>
       <c r="B347">
         <v>236</v>
@@ -8792,10 +8846,10 @@
         <v>511</v>
       </c>
       <c r="D347">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E347">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -8807,7 +8861,7 @@
     <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" t="str">
         <f t="shared" si="4"/>
-        <v>347.jpg</v>
+        <v>352.jpg</v>
       </c>
       <c r="B348">
         <v>236</v>
@@ -8816,34 +8870,34 @@
         <v>511</v>
       </c>
       <c r="D348">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="E348">
         <v>476</v>
       </c>
       <c r="F348">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G348">
-        <v>0</v>
+        <v>244</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" t="str">
         <f t="shared" si="4"/>
-        <v>348.jpg</v>
+        <v>353.jpg</v>
       </c>
       <c r="B349">
         <v>236</v>
       </c>
       <c r="C349">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D349">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="E349">
-        <v>476</v>
+        <v>389</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -8855,19 +8909,19 @@
     <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" t="str">
         <f t="shared" si="4"/>
-        <v>349.jpg</v>
+        <v>354.jpg</v>
       </c>
       <c r="B350">
         <v>236</v>
       </c>
       <c r="C350">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D350">
         <v>37</v>
       </c>
       <c r="E350">
-        <v>476</v>
+        <v>391</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -8877,21 +8931,20 @@
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A351" t="str">
-        <f t="shared" si="4"/>
-        <v>350.jpg</v>
+      <c r="A351" t="s">
+        <v>56</v>
       </c>
       <c r="B351">
         <v>236</v>
       </c>
       <c r="C351">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D351">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="E351">
-        <v>476</v>
+        <v>324</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -8903,13 +8956,13 @@
     <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" t="str">
         <f t="shared" si="4"/>
-        <v>351.jpg</v>
+        <v>357.jpg</v>
       </c>
       <c r="B352">
         <v>236</v>
       </c>
       <c r="C352">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="D352">
         <v>0</v>
@@ -8927,7 +8980,7 @@
     <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" t="str">
         <f t="shared" si="4"/>
-        <v>352.jpg</v>
+        <v>358.jpg</v>
       </c>
       <c r="B353">
         <v>236</v>
@@ -8936,58 +8989,58 @@
         <v>511</v>
       </c>
       <c r="D353">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E353">
         <v>476</v>
       </c>
       <c r="F353">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G353">
-        <v>244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" t="str">
         <f t="shared" si="4"/>
-        <v>353.jpg</v>
+        <v>359.jpg</v>
       </c>
       <c r="B354">
         <v>236</v>
       </c>
       <c r="C354">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D354">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="E354">
-        <v>389</v>
+        <v>245</v>
       </c>
       <c r="F354">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="G354">
-        <v>0</v>
+        <v>184</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" t="str">
         <f t="shared" si="4"/>
-        <v>354.jpg</v>
+        <v>360.jpg</v>
       </c>
       <c r="B355">
         <v>236</v>
       </c>
       <c r="C355">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D355">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E355">
-        <v>391</v>
+        <v>476</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -8997,44 +9050,45 @@
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
-        <v>56</v>
+      <c r="A356" t="str">
+        <f t="shared" si="4"/>
+        <v>361.jpg</v>
       </c>
       <c r="B356">
         <v>236</v>
       </c>
       <c r="C356">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D356">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="E356">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="F356">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G356">
-        <v>0</v>
+        <v>298</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" t="str">
         <f t="shared" si="4"/>
-        <v>357.jpg</v>
+        <v>362.jpg</v>
       </c>
       <c r="B357">
         <v>236</v>
       </c>
       <c r="C357">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="D357">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E357">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -9046,7 +9100,7 @@
     <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" t="str">
         <f t="shared" si="4"/>
-        <v>358.jpg</v>
+        <v>363.jpg</v>
       </c>
       <c r="B358">
         <v>236</v>
@@ -9055,22 +9109,22 @@
         <v>511</v>
       </c>
       <c r="D358">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E358">
         <v>476</v>
       </c>
       <c r="F358">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G358">
-        <v>0</v>
+        <v>361</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" t="str">
         <f t="shared" si="4"/>
-        <v>359.jpg</v>
+        <v>364.jpg</v>
       </c>
       <c r="B359">
         <v>236</v>
@@ -9079,34 +9133,34 @@
         <v>511</v>
       </c>
       <c r="D359">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="E359">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="F359">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="G359">
-        <v>184</v>
+        <v>328</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" t="str">
         <f t="shared" si="4"/>
-        <v>360.jpg</v>
+        <v>365.jpg</v>
       </c>
       <c r="B360">
         <v>236</v>
       </c>
       <c r="C360">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="D360">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E360">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -9118,7 +9172,7 @@
     <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" t="str">
         <f t="shared" si="4"/>
-        <v>361.jpg</v>
+        <v>366.jpg</v>
       </c>
       <c r="B361">
         <v>236</v>
@@ -9127,22 +9181,22 @@
         <v>511</v>
       </c>
       <c r="D361">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="E361">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="F361">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G361">
-        <v>298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" t="str">
-        <f t="shared" si="4"/>
-        <v>362.jpg</v>
+        <f>TEXT(VALUE(MID(A361, 1, LEN(A361)-4)) + 1, "0") &amp; ".jpg"</f>
+        <v>367.jpg</v>
       </c>
       <c r="B362">
         <v>236</v>
@@ -9151,70 +9205,70 @@
         <v>511</v>
       </c>
       <c r="D362">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="E362">
         <v>476</v>
       </c>
       <c r="F362">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G362">
-        <v>0</v>
+        <v>119</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" t="str">
         <f t="shared" si="4"/>
-        <v>363.jpg</v>
+        <v>368.jpg</v>
       </c>
       <c r="B363">
         <v>236</v>
       </c>
       <c r="C363">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="D363">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E363">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="F363">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G363">
-        <v>361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" t="str">
         <f t="shared" si="4"/>
-        <v>364.jpg</v>
+        <v>369.jpg</v>
       </c>
       <c r="B364">
         <v>236</v>
       </c>
       <c r="C364">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="D364">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="E364">
-        <v>263</v>
+        <v>481</v>
       </c>
       <c r="F364">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G364">
-        <v>328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" t="str">
         <f t="shared" si="4"/>
-        <v>365.jpg</v>
+        <v>370.jpg</v>
       </c>
       <c r="B365">
         <v>236</v>
@@ -9223,10 +9277,10 @@
         <v>498</v>
       </c>
       <c r="D365">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E365">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -9238,91 +9292,91 @@
     <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" t="str">
         <f t="shared" si="4"/>
-        <v>366.jpg</v>
+        <v>371.jpg</v>
       </c>
       <c r="B366">
         <v>236</v>
       </c>
       <c r="C366">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="D366">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E366">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="F366">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="G366">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" t="str">
-        <f>TEXT(VALUE(MID(A366, 1, LEN(A366)-4)) + 1, "0") &amp; ".jpg"</f>
-        <v>367.jpg</v>
+        <f t="shared" ref="A367:A395" si="5">TEXT(VALUE(MID(A366, 1, LEN(A366)-4)) + 1, "0") &amp; ".jpg"</f>
+        <v>372.jpg</v>
       </c>
       <c r="B367">
         <v>236</v>
       </c>
       <c r="C367">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="D367">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E367">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F367">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="G367">
-        <v>119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" t="str">
-        <f t="shared" si="4"/>
-        <v>368.jpg</v>
+        <f t="shared" si="5"/>
+        <v>373.jpg</v>
       </c>
       <c r="B368">
         <v>236</v>
       </c>
       <c r="C368">
-        <v>524</v>
+        <v>485</v>
       </c>
       <c r="D368">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E368">
-        <v>484</v>
+        <v>427</v>
       </c>
       <c r="F368">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G368">
-        <v>0</v>
+        <v>198</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" t="str">
-        <f t="shared" si="4"/>
-        <v>369.jpg</v>
+        <f t="shared" si="5"/>
+        <v>374.jpg</v>
       </c>
       <c r="B369">
         <v>236</v>
       </c>
       <c r="C369">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D369">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E369">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -9333,20 +9387,20 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" t="str">
-        <f t="shared" si="4"/>
-        <v>370.jpg</v>
+        <f t="shared" si="5"/>
+        <v>375.jpg</v>
       </c>
       <c r="B370">
         <v>236</v>
       </c>
       <c r="C370">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="D370">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E370">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -9357,44 +9411,44 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" t="str">
-        <f t="shared" si="4"/>
-        <v>371.jpg</v>
+        <f t="shared" si="5"/>
+        <v>376.jpg</v>
       </c>
       <c r="B371">
         <v>236</v>
       </c>
       <c r="C371">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="D371">
         <v>36</v>
       </c>
       <c r="E371">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="F371">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="G371">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" t="str">
-        <f t="shared" ref="A372:A400" si="5">TEXT(VALUE(MID(A371, 1, LEN(A371)-4)) + 1, "0") &amp; ".jpg"</f>
-        <v>372.jpg</v>
+        <f t="shared" si="5"/>
+        <v>377.jpg</v>
       </c>
       <c r="B372">
         <v>236</v>
       </c>
       <c r="C372">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="D372">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E372">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="F372">
         <v>0</v>
@@ -9406,67 +9460,67 @@
     <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" t="str">
         <f t="shared" si="5"/>
-        <v>373.jpg</v>
+        <v>378.jpg</v>
       </c>
       <c r="B373">
         <v>236</v>
       </c>
       <c r="C373">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="D373">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="E373">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="F373">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G373">
-        <v>198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" t="str">
         <f t="shared" si="5"/>
-        <v>374.jpg</v>
+        <v>379.jpg</v>
       </c>
       <c r="B374">
         <v>236</v>
       </c>
       <c r="C374">
-        <v>526</v>
+        <v>465</v>
       </c>
       <c r="D374">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="E374">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="F374">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G374">
-        <v>0</v>
+        <v>288</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" t="str">
         <f t="shared" si="5"/>
-        <v>375.jpg</v>
+        <v>380.jpg</v>
       </c>
       <c r="B375">
         <v>236</v>
       </c>
       <c r="C375">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="D375">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E375">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -9478,19 +9532,19 @@
     <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" t="str">
         <f t="shared" si="5"/>
-        <v>376.jpg</v>
+        <v>381.jpg</v>
       </c>
       <c r="B376">
         <v>236</v>
       </c>
       <c r="C376">
-        <v>498</v>
+        <v>354</v>
       </c>
       <c r="D376">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E376">
-        <v>446</v>
+        <v>332</v>
       </c>
       <c r="F376">
         <v>0</v>
@@ -9502,19 +9556,19 @@
     <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" t="str">
         <f t="shared" si="5"/>
-        <v>377.jpg</v>
+        <v>382.jpg</v>
       </c>
       <c r="B377">
         <v>236</v>
       </c>
       <c r="C377">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="D377">
         <v>36</v>
       </c>
       <c r="E377">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -9526,19 +9580,19 @@
     <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" t="str">
         <f t="shared" si="5"/>
-        <v>378.jpg</v>
+        <v>383.jpg</v>
       </c>
       <c r="B378">
         <v>236</v>
       </c>
       <c r="C378">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D378">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="E378">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -9550,43 +9604,43 @@
     <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" t="str">
         <f t="shared" si="5"/>
-        <v>379.jpg</v>
+        <v>384.jpg</v>
       </c>
       <c r="B379">
         <v>236</v>
       </c>
       <c r="C379">
-        <v>465</v>
+        <v>511</v>
       </c>
       <c r="D379">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="E379">
-        <v>437</v>
+        <v>476</v>
       </c>
       <c r="F379">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G379">
-        <v>288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" t="str">
         <f t="shared" si="5"/>
-        <v>380.jpg</v>
+        <v>385.jpg</v>
       </c>
       <c r="B380">
         <v>236</v>
       </c>
       <c r="C380">
-        <v>524</v>
+        <v>485</v>
       </c>
       <c r="D380">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E380">
-        <v>480</v>
+        <v>431</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -9598,19 +9652,19 @@
     <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" t="str">
         <f t="shared" si="5"/>
-        <v>381.jpg</v>
+        <v>386.jpg</v>
       </c>
       <c r="B381">
         <v>236</v>
       </c>
       <c r="C381">
-        <v>354</v>
+        <v>511</v>
       </c>
       <c r="D381">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E381">
-        <v>332</v>
+        <v>457</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -9622,43 +9676,43 @@
     <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" t="str">
         <f t="shared" si="5"/>
-        <v>382.jpg</v>
+        <v>387.jpg</v>
       </c>
       <c r="B382">
         <v>236</v>
       </c>
       <c r="C382">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="D382">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E382">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="F382">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="G382">
-        <v>0</v>
+        <v>478</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" t="str">
         <f t="shared" si="5"/>
-        <v>383.jpg</v>
+        <v>388.jpg</v>
       </c>
       <c r="B383">
         <v>236</v>
       </c>
       <c r="C383">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="D383">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E383">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -9670,7 +9724,7 @@
     <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" t="str">
         <f t="shared" si="5"/>
-        <v>384.jpg</v>
+        <v>389.jpg</v>
       </c>
       <c r="B384">
         <v>236</v>
@@ -9679,10 +9733,10 @@
         <v>511</v>
       </c>
       <c r="D384">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="E384">
-        <v>476</v>
+        <v>383</v>
       </c>
       <c r="F384">
         <v>0</v>
@@ -9694,19 +9748,19 @@
     <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" t="str">
         <f t="shared" si="5"/>
-        <v>385.jpg</v>
+        <v>390.jpg</v>
       </c>
       <c r="B385">
         <v>236</v>
       </c>
       <c r="C385">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="D385">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E385">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="F385">
         <v>0</v>
@@ -9718,19 +9772,19 @@
     <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" t="str">
         <f t="shared" si="5"/>
-        <v>386.jpg</v>
+        <v>391.jpg</v>
       </c>
       <c r="B386">
         <v>236</v>
       </c>
       <c r="C386">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="D386">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E386">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="F386">
         <v>0</v>
@@ -9742,31 +9796,31 @@
     <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" t="str">
         <f t="shared" si="5"/>
-        <v>387.jpg</v>
+        <v>392.jpg</v>
       </c>
       <c r="B387">
         <v>236</v>
       </c>
       <c r="C387">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="D387">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="E387">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="F387">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="G387">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" t="str">
         <f t="shared" si="5"/>
-        <v>388.jpg</v>
+        <v>393.jpg</v>
       </c>
       <c r="B388">
         <v>236</v>
@@ -9775,34 +9829,34 @@
         <v>511</v>
       </c>
       <c r="D388">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E388">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="F388">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="G388">
-        <v>0</v>
+        <v>361</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" t="str">
         <f t="shared" si="5"/>
-        <v>389.jpg</v>
+        <v>394.jpg</v>
       </c>
       <c r="B389">
         <v>236</v>
       </c>
       <c r="C389">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="D389">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="E389">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F389">
         <v>0</v>
@@ -9814,7 +9868,7 @@
     <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" t="str">
         <f t="shared" si="5"/>
-        <v>390.jpg</v>
+        <v>395.jpg</v>
       </c>
       <c r="B390">
         <v>236</v>
@@ -9823,10 +9877,10 @@
         <v>524</v>
       </c>
       <c r="D390">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E390">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -9838,19 +9892,19 @@
     <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" t="str">
         <f t="shared" si="5"/>
-        <v>391.jpg</v>
+        <v>396.jpg</v>
       </c>
       <c r="B391">
         <v>236</v>
       </c>
       <c r="C391">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="D391">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E391">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="F391">
         <v>0</v>
@@ -9862,67 +9916,67 @@
     <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" t="str">
         <f t="shared" si="5"/>
-        <v>392.jpg</v>
+        <v>397.jpg</v>
       </c>
       <c r="B392">
         <v>236</v>
       </c>
       <c r="C392">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="D392">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="E392">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="F392">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="G392">
-        <v>0</v>
+        <v>371</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" t="str">
         <f t="shared" si="5"/>
-        <v>393.jpg</v>
+        <v>398.jpg</v>
       </c>
       <c r="B393">
         <v>236</v>
       </c>
       <c r="C393">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="D393">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E393">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="F393">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="G393">
-        <v>361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" t="str">
         <f t="shared" si="5"/>
-        <v>394.jpg</v>
+        <v>399.jpg</v>
       </c>
       <c r="B394">
         <v>236</v>
       </c>
       <c r="C394">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="D394">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E394">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="F394">
         <v>0</v>
@@ -9934,144 +9988,24 @@
     <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" t="str">
         <f t="shared" si="5"/>
-        <v>395.jpg</v>
+        <v>400.jpg</v>
       </c>
       <c r="B395">
         <v>236</v>
       </c>
       <c r="C395">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="D395">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E395">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="F395">
         <v>0</v>
       </c>
       <c r="G395">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A396" t="str">
-        <f t="shared" si="5"/>
-        <v>396.jpg</v>
-      </c>
-      <c r="B396">
-        <v>236</v>
-      </c>
-      <c r="C396">
-        <v>511</v>
-      </c>
-      <c r="D396">
-        <v>36</v>
-      </c>
-      <c r="E396">
-        <v>474</v>
-      </c>
-      <c r="F396">
-        <v>0</v>
-      </c>
-      <c r="G396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A397" t="str">
-        <f t="shared" si="5"/>
-        <v>397.jpg</v>
-      </c>
-      <c r="B397">
-        <v>236</v>
-      </c>
-      <c r="C397">
-        <v>498</v>
-      </c>
-      <c r="D397">
-        <v>27</v>
-      </c>
-      <c r="E397">
-        <v>448</v>
-      </c>
-      <c r="F397">
-        <v>145</v>
-      </c>
-      <c r="G397">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A398" t="str">
-        <f t="shared" si="5"/>
-        <v>398.jpg</v>
-      </c>
-      <c r="B398">
-        <v>236</v>
-      </c>
-      <c r="C398">
-        <v>498</v>
-      </c>
-      <c r="D398">
-        <v>36</v>
-      </c>
-      <c r="E398">
-        <v>446</v>
-      </c>
-      <c r="F398">
-        <v>0</v>
-      </c>
-      <c r="G398">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A399" t="str">
-        <f t="shared" si="5"/>
-        <v>399.jpg</v>
-      </c>
-      <c r="B399">
-        <v>236</v>
-      </c>
-      <c r="C399">
-        <v>511</v>
-      </c>
-      <c r="D399">
-        <v>0</v>
-      </c>
-      <c r="E399">
-        <v>0</v>
-      </c>
-      <c r="F399">
-        <v>0</v>
-      </c>
-      <c r="G399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A400" t="str">
-        <f t="shared" si="5"/>
-        <v>400.jpg</v>
-      </c>
-      <c r="B400">
-        <v>236</v>
-      </c>
-      <c r="C400">
-        <v>511</v>
-      </c>
-      <c r="D400">
-        <v>60</v>
-      </c>
-      <c r="E400">
-        <v>481</v>
-      </c>
-      <c r="F400">
-        <v>0</v>
-      </c>
-      <c r="G400">
         <v>0</v>
       </c>
     </row>
